--- a/techniqo/data_new_ticker/ADANIGREEN.xlsx
+++ b/techniqo/data_new_ticker/ADANIGREEN.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G554"/>
+  <dimension ref="A1:G556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19776,6 +19776,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>654</v>
+      </c>
+      <c r="C555" t="n">
+        <v>670.8</v>
+      </c>
+      <c r="D555" t="n">
+        <v>645.9</v>
+      </c>
+      <c r="E555" t="n">
+        <v>670.8</v>
+      </c>
+      <c r="F555" t="n">
+        <v>2815809</v>
+      </c>
+      <c r="G555" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>692.9</v>
+      </c>
+      <c r="C556" t="n">
+        <v>697.9</v>
+      </c>
+      <c r="D556" t="n">
+        <v>643</v>
+      </c>
+      <c r="E556" t="n">
+        <v>675.55</v>
+      </c>
+      <c r="F556" t="n">
+        <v>3935810</v>
+      </c>
+      <c r="G556" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ADANIGREEN.xlsx
+++ b/techniqo/data_new_ticker/ADANIGREEN.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G556"/>
+  <dimension ref="A1:G558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19826,6 +19826,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>670</v>
+      </c>
+      <c r="C557" t="n">
+        <v>674</v>
+      </c>
+      <c r="D557" t="n">
+        <v>653.4</v>
+      </c>
+      <c r="E557" t="n">
+        <v>666.75</v>
+      </c>
+      <c r="F557" t="n">
+        <v>706811</v>
+      </c>
+      <c r="G557" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>687.95</v>
+      </c>
+      <c r="C558" t="n">
+        <v>687.95</v>
+      </c>
+      <c r="D558" t="n">
+        <v>642.25</v>
+      </c>
+      <c r="E558" t="n">
+        <v>665.6</v>
+      </c>
+      <c r="F558" t="n">
+        <v>20107415</v>
+      </c>
+      <c r="G558" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
